--- a/Diagrama de gantt.xlsx
+++ b/Diagrama de gantt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmata\Documents\Universidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmata\Documents\Universidad\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de gantt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Actividades</t>
   </si>
@@ -44,141 +44,34 @@
     <t>Semana 5</t>
   </si>
   <si>
-    <t>Semana 6</t>
-  </si>
-  <si>
-    <t>Semana 7</t>
-  </si>
-  <si>
-    <t>Semana 8</t>
-  </si>
-  <si>
-    <t>Semana 9</t>
-  </si>
-  <si>
-    <t>Semana 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 11 </t>
-  </si>
-  <si>
-    <t>Semana 12</t>
-  </si>
-  <si>
-    <t>14-Enero</t>
-  </si>
-  <si>
-    <t>7-Enero</t>
-  </si>
-  <si>
-    <t>14 - Enero</t>
-  </si>
-  <si>
-    <t>21 -Enero</t>
-  </si>
-  <si>
-    <t>28 - Enero</t>
-  </si>
-  <si>
-    <t>11 - Febrero</t>
-  </si>
-  <si>
-    <t>4 - Febrero</t>
-  </si>
-  <si>
-    <t>18 - Febrero</t>
-  </si>
-  <si>
-    <t>25 - Febrero</t>
-  </si>
-  <si>
-    <t>4 -Marzo</t>
-  </si>
-  <si>
-    <t>21 - Enero</t>
-  </si>
-  <si>
-    <t>11 -Febrero</t>
-  </si>
-  <si>
-    <t>25 -Febrero</t>
-  </si>
-  <si>
-    <t>4 - Marzo</t>
-  </si>
-  <si>
-    <t>11 -Marzo</t>
-  </si>
-  <si>
-    <t>18 - Marzo</t>
-  </si>
-  <si>
-    <t>18 -Marzo</t>
-  </si>
-  <si>
-    <t>25 - Marzo</t>
-  </si>
-  <si>
-    <t>25 -Marzo</t>
-  </si>
-  <si>
-    <t>1 - Abril</t>
-  </si>
-  <si>
-    <t>Estudiar la teoría de control para la representación en espacio de estados</t>
-  </si>
-  <si>
-    <t>Identificar las posibles variables de estado, para la representación más compacta en las ecuaciones en espacio de estados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir resultados al trabajo de investigación 
-</t>
-  </si>
-  <si>
-    <t>Igualar las ecuaciones de espacio de estado halladas en el objetivo anterior a cero.</t>
-  </si>
-  <si>
-    <t>Resolver las igualdades, para determinar los puntos de operación del sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar las matrices jacobianas
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluar las expresiones de las jacobianas en los puntos de operación
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiar la teoría de sistemas polítopos y la teoría de desigualdades matriciales
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinar el elemento de control y de corrección para la planta del sistema, a partir de la teoría de sistemas polítopos y la teoría de desigualdades matriciales. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiar la teoría de control para el diseño de controladores. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar la asignación de polos para determinar cómo debe ser el controlador
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar los cálculos correspondientes a la localización de los polos con el lenguaje de programación Matlab, utilizado la librería de desigualdades matriciales. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representar las ecuaciones obtenidas anteriormente con un diagrama de bloque en Simulink.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graficar la salida determinada por el diagrama de bloques para las variables de salida. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar la gráfica de las variables de salida para determinar la validez del modelo. 
-</t>
+    <t>Instalación del medidor y de la acometida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación de los conduit, curva de estos y cajetines correspondientes </t>
+  </si>
+  <si>
+    <t>Instalacion de la barra de cobre para puesta a tierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación de los socates, toma corrientes e interruptores </t>
+  </si>
+  <si>
+    <t>Instalación de lámparas</t>
+  </si>
+  <si>
+    <t>Instalación del tablero principal trifásico, así como los interruptores termomágneticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación de los equipos trifásicos e impresoras 3D </t>
+  </si>
+  <si>
+    <t>Instalación de los paneles solares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cableado de los paneles solares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cableado a través de los conduit con su identificación correspondiente de cada línea </t>
   </si>
 </sst>
 </file>
@@ -194,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +96,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -216,28 +115,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,239 +515,174 @@
     <col min="1" max="1" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
